--- a/Excel_Practice_Student.xlsx
+++ b/Excel_Practice_Student.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Code\savvycoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC92DC2-6476-4604-93ED-408E665A63EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C50A1A-7CD4-481A-AEBB-2EBD8038164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
     <sheet name="Loans" sheetId="2" r:id="rId2"/>
     <sheet name="Functions" sheetId="3" r:id="rId3"/>
+    <sheet name="Roster" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="219">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -632,6 +633,69 @@
   </si>
   <si>
     <t>Overtime Bonus</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>homeroom</t>
+  </si>
+  <si>
+    <t>Sarah Ashworth</t>
+  </si>
+  <si>
+    <t>Amanda Johnson</t>
+  </si>
+  <si>
+    <t>David Cline</t>
+  </si>
+  <si>
+    <t>Matthew Roberts</t>
+  </si>
+  <si>
+    <t>Sierra Chadwick</t>
+  </si>
+  <si>
+    <t>Ronnie Dangerfield</t>
+  </si>
+  <si>
+    <t>Thomase Cruise</t>
+  </si>
+  <si>
+    <t>Bradley Swickerwrath</t>
+  </si>
+  <si>
+    <t>Gracie Smith</t>
+  </si>
+  <si>
+    <t>John McDonald</t>
+  </si>
+  <si>
+    <t>Raymond James</t>
+  </si>
+  <si>
+    <t>Semester Grades</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>Geogology</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
   </si>
 </sst>
 </file>
@@ -641,9 +705,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,8 +745,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +790,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -892,28 +1002,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1229,469 +1358,875 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2CA6A-7C7B-42A2-BC97-252980B3146C}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.796875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="21" customWidth="1"/>
     <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.06640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.06640625" customWidth="1"/>
+    <col min="5" max="8" width="12.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.9296875" customWidth="1"/>
+    <col min="10" max="10" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="14.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1" s="20">
         <v>44669</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="31" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="J3" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="K3" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="P3" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>10</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
-      <c r="E4" s="24">
-        <f>C4*D4</f>
-        <v>400</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4" s="33">
+        <f>$C4*(D4+E4+F4+G4+H4)</f>
+        <v>1980</v>
+      </c>
+      <c r="J4">
         <f>IF(D4&gt;40,D4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <f>0.5*F4*C4</f>
+      <c r="K4">
+        <f t="shared" ref="K4:N12" si="0">IF(E4&gt;40,E4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="24">
-        <f>E4+G4</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="34">
+        <f>0.5*(J4+K4+L4+M4+N4)*$C4</f>
+        <v>45</v>
+      </c>
+      <c r="P4" s="35">
+        <f>I4+O4</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="21">
         <v>15</v>
       </c>
       <c r="D5">
         <v>35</v>
       </c>
-      <c r="E5" s="24">
-        <f t="shared" ref="E5:E14" si="0">C5*D5</f>
-        <v>525</v>
-      </c>
-      <c r="F5" s="26">
-        <f t="shared" ref="F5:F14" si="1">IF(D5&gt;40,D5-40,0)</f>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="I5" s="33">
+        <f>$C5*(D5+E5+F5+G5+H5)</f>
+        <v>2655</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J14" si="1">IF(D5&gt;40,D5-40,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5:G14" si="2">0.5*F5*C5</f>
+      <c r="K5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="24">
-        <f t="shared" ref="H5:H14" si="3">E5+G5</f>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="34">
+        <f t="shared" ref="O5:O14" si="2">0.5*(J5+K5+L5+M5+N5)*$C5</f>
+        <v>37.5</v>
+      </c>
+      <c r="P5" s="35">
+        <f t="shared" ref="P5:P14" si="3">I5+O5</f>
+        <v>2692.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>3.5</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" s="24">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="F6" s="26">
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+      <c r="I6" s="33">
+        <f>$C6*(D6+E6+F6+G6+H6)</f>
+        <v>563.5</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="24">
+      <c r="P6" s="35">
         <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+        <v>563.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>20.100000000000001</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7" s="24">
-        <f t="shared" si="0"/>
-        <v>1005.0000000000001</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>49</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" ref="I7:I14" si="4">$C7*(D7+E7+F7+G7+H7)</f>
+        <v>4522.5</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G7" s="1">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O7" s="34">
         <f t="shared" si="2"/>
-        <v>100.5</v>
-      </c>
-      <c r="H7" s="24">
+        <v>301.5</v>
+      </c>
+      <c r="P7" s="35">
         <f t="shared" si="3"/>
-        <v>1105.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>5.75</v>
       </c>
       <c r="D8">
         <v>55</v>
       </c>
-      <c r="E8" s="24">
-        <f t="shared" si="0"/>
-        <v>316.25</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8" s="33">
+        <f t="shared" si="4"/>
+        <v>1454.75</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G8" s="1">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="34">
         <f t="shared" si="2"/>
-        <v>43.125</v>
-      </c>
-      <c r="H8" s="24">
+        <v>169.625</v>
+      </c>
+      <c r="P8" s="35">
         <f t="shared" si="3"/>
-        <v>359.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+        <v>1624.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="21">
         <v>12</v>
       </c>
       <c r="D9">
         <v>45</v>
       </c>
-      <c r="E9" s="24">
-        <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9" s="33">
+        <f t="shared" si="4"/>
+        <v>2340</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="34">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="H9" s="24">
+        <v>48</v>
+      </c>
+      <c r="P9" s="35">
         <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="21">
         <v>6.55</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
-      <c r="E10" s="24">
-        <f t="shared" si="0"/>
-        <v>163.75</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>39</v>
+      </c>
+      <c r="I10" s="33">
+        <f t="shared" si="4"/>
+        <v>1159.3499999999999</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="34">
+        <f t="shared" si="2"/>
+        <v>16.375</v>
+      </c>
+      <c r="P10" s="35">
+        <f t="shared" si="3"/>
+        <v>1175.7249999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="21">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>49</v>
+      </c>
+      <c r="I11" s="33">
+        <f t="shared" si="4"/>
+        <v>5460</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O11" s="34">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="P11" s="35">
+        <f t="shared" si="3"/>
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="21">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="4"/>
+        <v>11475</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="P12" s="35">
         <f t="shared" si="3"/>
-        <v>163.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+        <v>11475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="21">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>49</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="4"/>
+        <v>8040</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13" s="34">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="P13" s="35">
+        <f t="shared" si="3"/>
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="21">
+        <v>25</v>
+      </c>
+      <c r="D14">
         <v>22</v>
       </c>
-      <c r="C11" s="24">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>29</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="0"/>
-        <v>870</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="E14">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>28</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="4"/>
+        <v>3650</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="K14">
+        <f t="shared" ref="K14" si="5">IF(E14&gt;40,E14-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14" si="6">IF(F14&gt;40,F14-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="7">IF(G14&gt;40,G14-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14" si="8">IF(H14&gt;40,H14-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="24">
+      <c r="P14" s="35">
         <f t="shared" si="3"/>
-        <v>870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="24">
-        <v>75</v>
-      </c>
-      <c r="D12">
-        <v>32</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="F12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="24">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>44</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="0"/>
-        <v>1760</v>
-      </c>
-      <c r="F13" s="26">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="H13" s="24">
-        <f t="shared" si="3"/>
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="24">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="F14" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="32"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21">
         <f>MAX(C4:C14)</f>
         <v>75</v>
       </c>
-      <c r="D16" s="29">
-        <f t="shared" ref="D16:E16" si="4">MAX(D4:D14)</f>
-        <v>55</v>
-      </c>
-      <c r="E16" s="24">
-        <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="D16" s="37">
+        <f t="shared" ref="D16:I16" si="9">MAX(D4:D14)</f>
+        <v>55</v>
+      </c>
+      <c r="E16" s="37">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="G16" s="37">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="H16" s="37">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="9"/>
+        <v>11475</v>
+      </c>
+      <c r="O16" s="21"/>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21">
         <f>MIN(C4:C14)</f>
         <v>3.5</v>
       </c>
-      <c r="D17" s="29">
-        <f t="shared" ref="D17:E17" si="5">MIN(D4:D14)</f>
+      <c r="D17" s="37">
+        <f t="shared" ref="D17:I17" si="10">MIN(D4:D14)</f>
         <v>22</v>
       </c>
-      <c r="E17" s="24">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="E17" s="37">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="F17" s="37">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="H17" s="37">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="10"/>
+        <v>563.5</v>
+      </c>
+      <c r="O17" s="21"/>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
         <f>AVERAGE(C4:C14)</f>
         <v>22.081818181818178</v>
       </c>
-      <c r="D18" s="29">
-        <f t="shared" ref="D18:E18" si="6">AVERAGE(D4:D14)</f>
+      <c r="D18" s="37">
+        <f t="shared" ref="D18:I18" si="11">AVERAGE(D4:D14)</f>
         <v>37</v>
       </c>
-      <c r="E18" s="24">
-        <f t="shared" si="6"/>
-        <v>785</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="E18" s="37">
+        <f t="shared" si="11"/>
+        <v>39.18181818181818</v>
+      </c>
+      <c r="F18" s="37">
+        <f t="shared" si="11"/>
+        <v>39.18181818181818</v>
+      </c>
+      <c r="G18" s="37">
+        <f t="shared" si="11"/>
+        <v>37.636363636363633</v>
+      </c>
+      <c r="H18" s="37">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="11"/>
+        <v>3936.3727272727269</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="38"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40">
         <f>SUM(C4:C14)</f>
         <v>242.89999999999998</v>
       </c>
-      <c r="D19" s="29">
-        <f t="shared" ref="D19:E19" si="7">SUM(D4:D14)</f>
+      <c r="D19" s="41">
+        <f t="shared" ref="D19:I19" si="12">SUM(D4:D14)</f>
         <v>407</v>
       </c>
-      <c r="E19" s="24">
-        <f t="shared" si="7"/>
-        <v>8635</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="41">
+        <f t="shared" si="12"/>
+        <v>431</v>
+      </c>
+      <c r="F19" s="41">
+        <f t="shared" si="12"/>
+        <v>431</v>
+      </c>
+      <c r="G19" s="41">
+        <f t="shared" si="12"/>
+        <v>414</v>
+      </c>
+      <c r="H19" s="41">
+        <f t="shared" si="12"/>
+        <v>385</v>
+      </c>
+      <c r="I19" s="40">
+        <f t="shared" si="12"/>
+        <v>43300.1</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1703,7 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AA2E7-F047-42D2-AD6F-D303D1F75E1A}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -1741,16 +2276,16 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="23">
         <v>5050</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="22">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="D3">
         <v>18</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <f>B3*C3</f>
         <v>308.05</v>
       </c>
@@ -1767,16 +2302,16 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="23">
         <v>28900</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="22">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="D4">
         <v>54</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <f t="shared" ref="E4:E6" si="0">B4*C4</f>
         <v>1560.6</v>
       </c>
@@ -1793,16 +2328,16 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="23">
         <v>29900</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="22">
         <v>3.44E-2</v>
       </c>
       <c r="D5">
         <v>36</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>1028.56</v>
       </c>
@@ -1819,16 +2354,16 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="23">
         <v>23444</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="22">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="D6">
         <v>48</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>1015.1251999999999</v>
       </c>
@@ -1873,18 +2408,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -2116,13 +2651,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
@@ -2259,17 +2794,17 @@
       <c r="D23" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
@@ -2498,18 +3033,18 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="F40" s="21" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="F40" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
@@ -3026,18 +3561,18 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="F64" s="22" t="s">
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="F64" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
@@ -3603,16 +4138,16 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
@@ -3834,18 +4369,18 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="F103" s="21" t="s">
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="F103" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
@@ -4062,21 +4597,21 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="F115" s="21" t="s">
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="F115" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
@@ -4242,13 +4777,13 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
@@ -4380,18 +4915,18 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="F138" s="21" t="s">
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="44"/>
+      <c r="F138" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="44"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
@@ -4605,23 +5140,23 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="H150" s="21" t="s">
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="H150" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="21"/>
-      <c r="N150" s="21"/>
+      <c r="I150" s="44"/>
+      <c r="J150" s="44"/>
+      <c r="K150" s="44"/>
+      <c r="L150" s="44"/>
+      <c r="M150" s="44"/>
+      <c r="N150" s="44"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
@@ -5210,14 +5745,14 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B175" s="21" t="s">
+      <c r="B175" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="21"/>
-      <c r="D175" s="21"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
+      <c r="C175" s="44"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="44"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="44"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B176" s="2" t="s">
@@ -5353,16 +5888,16 @@
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B187" s="21" t="s">
+      <c r="B187" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="21"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="44"/>
+      <c r="F187" s="44"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="44"/>
+      <c r="I187" s="44"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B188" s="2" t="s">
@@ -5654,15 +6189,15 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A203" s="21" t="s">
+      <c r="A203" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="44"/>
+      <c r="D203" s="44"/>
+      <c r="E203" s="44"/>
+      <c r="F203" s="44"/>
+      <c r="G203" s="44"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
@@ -6036,12 +6571,12 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A229" s="21" t="s">
+      <c r="A229" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
+      <c r="B229" s="44"/>
+      <c r="C229" s="44"/>
+      <c r="D229" s="44"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
@@ -6189,4 +6724,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AFAA4-ED73-4DD1-B928-BD4559D0B716}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.65">
+      <c r="H1" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Practice_Student.xlsx
+++ b/Excel_Practice_Student.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Code\savvycoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C50A1A-7CD4-481A-AEBB-2EBD8038164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D636471D-B0F6-44AF-853F-2EBFDB75FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
     <sheet name="Loans" sheetId="2" r:id="rId2"/>
     <sheet name="Functions" sheetId="3" r:id="rId3"/>
     <sheet name="Roster" sheetId="4" r:id="rId4"/>
+    <sheet name="Credit Cards" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="230">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -644,9 +645,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>homeroom</t>
-  </si>
-  <si>
     <t>Sarah Ashworth</t>
   </si>
   <si>
@@ -696,6 +694,42 @@
   </si>
   <si>
     <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Descriptive Statistics</t>
+  </si>
+  <si>
+    <t>Homeroom</t>
+  </si>
+  <si>
+    <t>Credit Card Debt</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Citi Card</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Wal-Mart</t>
   </si>
 </sst>
 </file>
@@ -707,7 +741,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,8 +795,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,8 +874,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -940,12 +1003,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1034,13 +1115,35 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1059,6 +1162,2204 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41789566929133859"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Cards'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Cards'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Cards'!$G$6:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1086.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30A6-4204-A3D9-881DB6C4EE7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="635520744"/>
+        <c:axId val="635513528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="635520744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Credit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Cards</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635513528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635513528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Monthly Payment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635520744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Balance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Monthly Payment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Cards'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Cards'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Cards'!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-18DA-4857-812E-63D22FE5F9D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="778496976"/>
+        <c:axId val="778497960"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Cards'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Cards'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Cards'!$G$6:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1086.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-18DA-4857-812E-63D22FE5F9D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="778496976"/>
+        <c:axId val="778497960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="778496976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Credit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Card</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778497960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="778497960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778496976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B39B63-617A-1158-5B5A-26E63D271998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F20AD3-FE2C-F59C-3055-70DEDCCB335F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1361,7 +3662,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1467,7 +3768,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="33">
-        <f>$C4*(D4+E4+F4+G4+H4)</f>
+        <f>C4*(D4+E4+F4+G4+H4)</f>
         <v>1980</v>
       </c>
       <c r="J4">
@@ -1525,11 +3826,11 @@
         <v>29</v>
       </c>
       <c r="I5" s="33">
-        <f>$C5*(D5+E5+F5+G5+H5)</f>
+        <f t="shared" ref="I5:I14" si="1">C5*(D5+E5+F5+G5+H5)</f>
         <v>2655</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J14" si="1">IF(D5&gt;40,D5-40,0)</f>
+        <f t="shared" ref="J5:J14" si="2">IF(D5&gt;40,D5-40,0)</f>
         <v>0</v>
       </c>
       <c r="K5">
@@ -1549,11 +3850,11 @@
         <v>0</v>
       </c>
       <c r="O5" s="34">
-        <f t="shared" ref="O5:O14" si="2">0.5*(J5+K5+L5+M5+N5)*$C5</f>
+        <f t="shared" ref="O5:O14" si="3">0.5*(J5+K5+L5+M5+N5)*$C5</f>
         <v>37.5</v>
       </c>
       <c r="P5" s="35">
-        <f t="shared" ref="P5:P14" si="3">I5+O5</f>
+        <f t="shared" ref="P5:P14" si="4">I5+O5</f>
         <v>2692.5</v>
       </c>
     </row>
@@ -1583,11 +3884,11 @@
         <v>28</v>
       </c>
       <c r="I6" s="33">
-        <f>$C6*(D6+E6+F6+G6+H6)</f>
+        <f t="shared" si="1"/>
         <v>563.5</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
@@ -1607,11 +3908,11 @@
         <v>0</v>
       </c>
       <c r="O6" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P6" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>563.5</v>
       </c>
     </row>
@@ -1641,11 +3942,11 @@
         <v>49</v>
       </c>
       <c r="I7" s="33">
-        <f t="shared" ref="I7:I14" si="4">$C7*(D7+E7+F7+G7+H7)</f>
+        <f t="shared" si="1"/>
         <v>4522.5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K7">
@@ -1665,11 +3966,11 @@
         <v>9</v>
       </c>
       <c r="O7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>301.5</v>
       </c>
       <c r="P7" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4824</v>
       </c>
     </row>
@@ -1699,11 +4000,11 @@
         <v>34</v>
       </c>
       <c r="I8" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1454.75</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K8">
@@ -1723,11 +4024,11 @@
         <v>0</v>
       </c>
       <c r="O8" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>169.625</v>
       </c>
       <c r="P8" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1624.375</v>
       </c>
     </row>
@@ -1757,11 +4058,11 @@
         <v>32</v>
       </c>
       <c r="I9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2340</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K9">
@@ -1781,11 +4082,11 @@
         <v>0</v>
       </c>
       <c r="O9" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="P9" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2388</v>
       </c>
     </row>
@@ -1815,11 +4116,11 @@
         <v>39</v>
       </c>
       <c r="I10" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1159.3499999999999</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
@@ -1839,11 +4140,11 @@
         <v>0</v>
       </c>
       <c r="O10" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.375</v>
       </c>
       <c r="P10" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1175.7249999999999</v>
       </c>
     </row>
@@ -1873,11 +4174,11 @@
         <v>49</v>
       </c>
       <c r="I11" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5460</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
@@ -1897,11 +4198,11 @@
         <v>9</v>
       </c>
       <c r="O11" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="P11" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5595</v>
       </c>
     </row>
@@ -1931,11 +4232,11 @@
         <v>23</v>
       </c>
       <c r="I12" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11475</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12">
@@ -1955,11 +4256,11 @@
         <v>0</v>
       </c>
       <c r="O12" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11475</v>
       </c>
     </row>
@@ -1989,11 +4290,11 @@
         <v>49</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8040</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K13">
@@ -2009,11 +4310,11 @@
         <v>8</v>
       </c>
       <c r="O13" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>340</v>
       </c>
       <c r="P13" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8380</v>
       </c>
     </row>
@@ -2043,11 +4344,11 @@
         <v>24</v>
       </c>
       <c r="I14" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3650</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14">
@@ -2067,11 +4368,11 @@
         <v>0</v>
       </c>
       <c r="O14" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3650</v>
       </c>
     </row>
@@ -2408,18 +4709,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="45" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -2651,13 +4952,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
@@ -2794,17 +5095,17 @@
       <c r="D23" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
@@ -3033,18 +5334,18 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="F40" s="44" t="s">
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="F40" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
@@ -3561,18 +5862,18 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="F64" s="45" t="s">
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="F64" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
@@ -4138,16 +6439,16 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
@@ -4369,18 +6670,18 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="F103" s="44" t="s">
+      <c r="B103" s="55"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
+      <c r="F103" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
@@ -4597,21 +6898,21 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A115" s="44" t="s">
+      <c r="A115" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="B115" s="44"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="F115" s="44" t="s">
+      <c r="B115" s="55"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="55"/>
+      <c r="F115" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
-      <c r="K115" s="44"/>
-      <c r="L115" s="44"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="55"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
@@ -4777,13 +7078,13 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A127" s="44" t="s">
+      <c r="A127" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
@@ -4915,18 +7216,18 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A138" s="44" t="s">
+      <c r="A138" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="44"/>
-      <c r="F138" s="44" t="s">
+      <c r="B138" s="55"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
+      <c r="F138" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="55"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
@@ -5140,23 +7441,23 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A150" s="44" t="s">
+      <c r="A150" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B150" s="44"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="44"/>
-      <c r="H150" s="44" t="s">
+      <c r="B150" s="55"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="H150" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="I150" s="44"/>
-      <c r="J150" s="44"/>
-      <c r="K150" s="44"/>
-      <c r="L150" s="44"/>
-      <c r="M150" s="44"/>
-      <c r="N150" s="44"/>
+      <c r="I150" s="55"/>
+      <c r="J150" s="55"/>
+      <c r="K150" s="55"/>
+      <c r="L150" s="55"/>
+      <c r="M150" s="55"/>
+      <c r="N150" s="55"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
@@ -5745,14 +8046,14 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B175" s="44" t="s">
+      <c r="B175" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="44"/>
-      <c r="D175" s="44"/>
-      <c r="E175" s="44"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="44"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="55"/>
+      <c r="G175" s="55"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B176" s="2" t="s">
@@ -5888,16 +8189,16 @@
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B187" s="44" t="s">
+      <c r="B187" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="44"/>
-      <c r="D187" s="44"/>
-      <c r="E187" s="44"/>
-      <c r="F187" s="44"/>
-      <c r="G187" s="44"/>
-      <c r="H187" s="44"/>
-      <c r="I187" s="44"/>
+      <c r="C187" s="55"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="55"/>
+      <c r="I187" s="55"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B188" s="2" t="s">
@@ -6189,15 +8490,15 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A203" s="44" t="s">
+      <c r="A203" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="B203" s="44"/>
-      <c r="C203" s="44"/>
-      <c r="D203" s="44"/>
-      <c r="E203" s="44"/>
-      <c r="F203" s="44"/>
-      <c r="G203" s="44"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="55"/>
+      <c r="D203" s="55"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="55"/>
+      <c r="G203" s="55"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
@@ -6571,12 +8872,12 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A229" s="44" t="s">
+      <c r="A229" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="B229" s="44"/>
-      <c r="C229" s="44"/>
-      <c r="D229" s="44"/>
+      <c r="B229" s="55"/>
+      <c r="C229" s="55"/>
+      <c r="D229" s="55"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
@@ -6698,6 +8999,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="A203:G203"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="H150:N150"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="F115:L115"/>
     <mergeCell ref="A1:D1"/>
@@ -6711,15 +9021,6 @@
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="F103:I103"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="A203:G203"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="H150:N150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6728,112 +9029,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AFAA4-ED73-4DD1-B928-BD4559D0B716}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.65">
-      <c r="H1" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="H1" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
-        <v>201</v>
+      <c r="D2" s="50" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="51">
+        <v>11</v>
+      </c>
+      <c r="C3" s="51">
+        <v>72</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="45">
+        <v>11</v>
+      </c>
+      <c r="C5" s="45">
+        <v>85</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
       <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="45">
+        <v>12</v>
+      </c>
+      <c r="C7" s="45">
         <v>95</v>
       </c>
-      <c r="D6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>218</v>
+      <c r="D7" s="45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -6842,26 +9144,26 @@
         <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
+      <c r="A9" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="45">
+        <v>13</v>
+      </c>
+      <c r="C9" s="45">
+        <v>60</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -6870,50 +9172,130 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="45">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="45">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
-        <v>214</v>
+      <c r="D11" s="45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="46">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="46">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13">
+      <c r="D13" s="46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="44">
+        <f>MAX(B3:B13)</f>
+        <v>15</v>
+      </c>
+      <c r="C17" s="44">
+        <f>MAX(C3:C13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="44">
+        <f>MIN(B3:B13)</f>
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C18" s="44">
+        <f>MIN(C3:C13)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="52">
+        <f>AVERAGE(B3:B13)</f>
+        <v>12.454545454545455</v>
+      </c>
+      <c r="C19" s="52">
+        <f>AVERAGE(C3:C13)</f>
+        <v>83.545454545454547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="44">
+        <f>_xlfn.MODE.SNGL(B3:B13)</f>
+        <v>11</v>
+      </c>
+      <c r="C20" s="44">
+        <f>_xlfn.MODE.SNGL(C3:C13)</f>
         <v>85</v>
       </c>
-      <c r="D13" t="s">
-        <v>216</v>
-      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="44">
+        <f>MEDIAN(B3:B13)</f>
+        <v>12</v>
+      </c>
+      <c r="C21" s="44">
+        <f>MEDIAN(C3:C13)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="44">
+        <f>COUNT(B3:B13)</f>
+        <v>11</v>
+      </c>
+      <c r="C22" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6921,4 +9303,193 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020FA609-8388-4B56-B39A-9C4E8FACA308}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="H1" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="23">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.21</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="23">
+        <f>(B6*C6*D6)</f>
+        <v>1260</v>
+      </c>
+      <c r="F6" s="21">
+        <f>B6+E6</f>
+        <v>3260</v>
+      </c>
+      <c r="G6" s="21">
+        <f>F6/D6</f>
+        <v>1086.6666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="23">
+        <v>459</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" ref="E7:E10" si="0">(B7*C7*D7)</f>
+        <v>344.25</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" ref="F7:F10" si="1">B7+E7</f>
+        <v>803.25</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" ref="G7:G10" si="2">F7/D7</f>
+        <v>267.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="23">
+        <v>975</v>
+      </c>
+      <c r="C8" s="54">
+        <v>0.27</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>789.75</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="1"/>
+        <v>1764.75</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="2"/>
+        <v>588.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="1"/>
+        <v>2175</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="23">
+        <v>780</v>
+      </c>
+      <c r="C10" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="1"/>
+        <v>1365</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel_Practice_Student.xlsx
+++ b/Excel_Practice_Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Code\savvycoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D636471D-B0F6-44AF-853F-2EBFDB75FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA88B3-2AE9-45A0-830A-BC00ABBD0444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
@@ -1277,19 +1277,19 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1086.6666666666667</c:v>
+                  <c:v>806.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.75</c:v>
+                  <c:v>191.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>588.25</c:v>
+                  <c:v>412.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>725</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>455</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,19 +1816,19 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1086.6666666666667</c:v>
+                  <c:v>806.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.75</c:v>
+                  <c:v>191.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>588.25</c:v>
+                  <c:v>412.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>725</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>455</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8999,15 +8999,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="A203:G203"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="H150:N150"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="F115:L115"/>
     <mergeCell ref="A1:D1"/>
@@ -9021,6 +9012,15 @@
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="F103:I103"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="A203:G203"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="H150:N150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9310,7 +9310,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9368,16 +9368,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="23">
-        <f>(B6*C6*D6)</f>
-        <v>1260</v>
+        <f>(B6*C6)</f>
+        <v>420</v>
       </c>
       <c r="F6" s="21">
         <f>B6+E6</f>
-        <v>3260</v>
+        <v>2420</v>
       </c>
       <c r="G6" s="21">
         <f>F6/D6</f>
-        <v>1086.6666666666667</v>
+        <v>806.66666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -9394,16 +9394,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="23">
-        <f t="shared" ref="E7:E10" si="0">(B7*C7*D7)</f>
-        <v>344.25</v>
+        <f t="shared" ref="E7:E10" si="0">(B7*C7)</f>
+        <v>114.75</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" ref="F7:F10" si="1">B7+E7</f>
-        <v>803.25</v>
+        <v>573.75</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" ref="G7:G10" si="2">F7/D7</f>
-        <v>267.75</v>
+        <v>191.25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -9421,15 +9421,15 @@
       </c>
       <c r="E8" s="23">
         <f t="shared" si="0"/>
-        <v>789.75</v>
+        <v>263.25</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" si="1"/>
-        <v>1764.75</v>
+        <v>1238.25</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="2"/>
-        <v>588.25</v>
+        <v>412.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -9447,15 +9447,15 @@
       </c>
       <c r="E9" s="23">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>225</v>
       </c>
       <c r="F9" s="21">
         <f t="shared" si="1"/>
-        <v>2175</v>
+        <v>1725</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="2"/>
-        <v>725</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -9473,15 +9473,15 @@
       </c>
       <c r="E10" s="23">
         <f t="shared" si="0"/>
-        <v>585</v>
+        <v>195</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" si="1"/>
-        <v>1365</v>
+        <v>975</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="2"/>
-        <v>455</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
